--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.183918</v>
       </c>
       <c r="O2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q2">
-        <v>3.791448133335333</v>
+        <v>4.075436141924</v>
       </c>
       <c r="R2">
-        <v>34.123033200018</v>
+        <v>36.678925277316</v>
       </c>
       <c r="S2">
-        <v>0.004091509853093186</v>
+        <v>0.002391714974634091</v>
       </c>
       <c r="T2">
-        <v>0.004091509853093186</v>
+        <v>0.002391714974634091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N3">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O3">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P3">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q3">
-        <v>17.55060470972845</v>
+        <v>35.88361715864467</v>
       </c>
       <c r="R3">
-        <v>157.955442387556</v>
+        <v>322.952554427802</v>
       </c>
       <c r="S3">
-        <v>0.01893958972199569</v>
+        <v>0.02105869936704501</v>
       </c>
       <c r="T3">
-        <v>0.01893958972199569</v>
+        <v>0.021058699367045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N4">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O4">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P4">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q4">
-        <v>1.637893719428</v>
+        <v>0.336971679826</v>
       </c>
       <c r="R4">
-        <v>14.741043474852</v>
+        <v>3.032745118434</v>
       </c>
       <c r="S4">
-        <v>0.00176751944262095</v>
+        <v>0.0001977555737842985</v>
       </c>
       <c r="T4">
-        <v>0.001767519442620949</v>
+        <v>0.0001977555737842985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N5">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O5">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P5">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q5">
-        <v>6.239424312596222</v>
+        <v>33.17933466992466</v>
       </c>
       <c r="R5">
-        <v>56.154818813366</v>
+        <v>298.614012029322</v>
       </c>
       <c r="S5">
-        <v>0.00673322307330605</v>
+        <v>0.01947166114618383</v>
       </c>
       <c r="T5">
-        <v>0.006733223073306049</v>
+        <v>0.01947166114618383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I6">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J6">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.183918</v>
       </c>
       <c r="O6">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P6">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q6">
         <v>83.46070520411399</v>
@@ -824,10 +824,10 @@
         <v>751.1463468370259</v>
       </c>
       <c r="S6">
-        <v>0.09006592881658074</v>
+        <v>0.04897984202887391</v>
       </c>
       <c r="T6">
-        <v>0.09006592881658076</v>
+        <v>0.0489798420288739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N7">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O7">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P7">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q7">
-        <v>386.3394128891881</v>
+        <v>734.8592614485329</v>
       </c>
       <c r="R7">
-        <v>3477.054716002692</v>
+        <v>6613.733353036797</v>
       </c>
       <c r="S7">
-        <v>0.4169149778356057</v>
+        <v>0.4312603212634956</v>
       </c>
       <c r="T7">
-        <v>0.4169149778356058</v>
+        <v>0.4312603212634954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N8">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O8">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P8">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q8">
-        <v>36.054763263396</v>
+        <v>6.900830500760999</v>
       </c>
       <c r="R8">
-        <v>324.492869370564</v>
+        <v>62.10747450684899</v>
       </c>
       <c r="S8">
-        <v>0.03890819917754093</v>
+        <v>0.004049829041926758</v>
       </c>
       <c r="T8">
-        <v>0.03890819917754094</v>
+        <v>0.004049829041926757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N9">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O9">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P9">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q9">
-        <v>137.347719099318</v>
+        <v>679.4783609216129</v>
       </c>
       <c r="R9">
-        <v>1236.129471893862</v>
+        <v>6115.305248294517</v>
       </c>
       <c r="S9">
-        <v>0.1482176535803957</v>
+        <v>0.3987594245529845</v>
       </c>
       <c r="T9">
-        <v>0.1482176535803958</v>
+        <v>0.3987594245529844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H10">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I10">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J10">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.183918</v>
       </c>
       <c r="O10">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P10">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q10">
-        <v>15.388236000284</v>
+        <v>2.748416152272</v>
       </c>
       <c r="R10">
-        <v>138.494124002556</v>
+        <v>24.735745370448</v>
       </c>
       <c r="S10">
-        <v>0.01660608743749276</v>
+        <v>0.00161293855160539</v>
       </c>
       <c r="T10">
-        <v>0.01660608743749276</v>
+        <v>0.001612938551605389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H11">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I11">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J11">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N11">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O11">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P11">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q11">
-        <v>71.23210913699468</v>
+        <v>24.199400890184</v>
       </c>
       <c r="R11">
-        <v>641.088982232952</v>
+        <v>217.794608011656</v>
       </c>
       <c r="S11">
-        <v>0.07686954064547293</v>
+        <v>0.01420168724785922</v>
       </c>
       <c r="T11">
-        <v>0.07686954064547291</v>
+        <v>0.01420168724785921</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N12">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O12">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P12">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q12">
-        <v>6.647669758776001</v>
+        <v>0.227248906728</v>
       </c>
       <c r="R12">
-        <v>59.829027828984</v>
+        <v>2.045240160552</v>
       </c>
       <c r="S12">
-        <v>0.007173777765545923</v>
+        <v>0.0001333635454619078</v>
       </c>
       <c r="T12">
-        <v>0.007173777765545922</v>
+        <v>0.0001333635454619077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N13">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O13">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P13">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q13">
-        <v>25.32376296644133</v>
+        <v>22.375671254024</v>
       </c>
       <c r="R13">
-        <v>227.913866697972</v>
+        <v>201.381041286216</v>
       </c>
       <c r="S13">
-        <v>0.02732792907902535</v>
+        <v>0.01313141125074136</v>
       </c>
       <c r="T13">
-        <v>0.02732792907902535</v>
+        <v>0.01313141125074136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H14">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I14">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J14">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.183918</v>
       </c>
       <c r="O14">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P14">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q14">
-        <v>1.660002752109333</v>
+        <v>3.238834051026001</v>
       </c>
       <c r="R14">
-        <v>14.940024768984</v>
+        <v>29.149506459234</v>
       </c>
       <c r="S14">
-        <v>0.001791378222136537</v>
+        <v>0.001900745743628962</v>
       </c>
       <c r="T14">
-        <v>0.001791378222136537</v>
+        <v>0.001900745743628962</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H15">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I15">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J15">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N15">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O15">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P15">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q15">
-        <v>7.684148930636445</v>
+        <v>28.51745851979701</v>
       </c>
       <c r="R15">
-        <v>69.157340375728</v>
+        <v>256.657126678173</v>
       </c>
       <c r="S15">
-        <v>0.008292285679951248</v>
+        <v>0.01673578733786892</v>
       </c>
       <c r="T15">
-        <v>0.008292285679951248</v>
+        <v>0.01673578733786892</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H16">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I16">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J16">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N16">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O16">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P16">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q16">
-        <v>0.717115990064</v>
+        <v>0.267798417849</v>
       </c>
       <c r="R16">
-        <v>6.454043910576</v>
+        <v>2.410185760641</v>
       </c>
       <c r="S16">
-        <v>0.0007738697816700493</v>
+        <v>0.0001571604765350081</v>
       </c>
       <c r="T16">
-        <v>0.0007738697816700494</v>
+        <v>0.0001571604765350081</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N17">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O17">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P17">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q17">
-        <v>2.731795653334222</v>
+        <v>26.368308857517</v>
       </c>
       <c r="R17">
-        <v>24.58616088000799</v>
+        <v>237.314779717653</v>
       </c>
       <c r="S17">
-        <v>0.002947994655124441</v>
+        <v>0.01547453498327351</v>
       </c>
       <c r="T17">
-        <v>0.002947994655124441</v>
+        <v>0.01547453498327351</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H18">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I18">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J18">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.183918</v>
       </c>
       <c r="O18">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P18">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q18">
-        <v>15.94149299861533</v>
+        <v>0.9908039283193333</v>
       </c>
       <c r="R18">
-        <v>143.473436987538</v>
+        <v>8.917235354874</v>
       </c>
       <c r="S18">
-        <v>0.01720313014528106</v>
+        <v>0.0005814642923515163</v>
       </c>
       <c r="T18">
-        <v>0.01720313014528106</v>
+        <v>0.0005814642923515161</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H19">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I19">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J19">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N19">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O19">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P19">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q19">
-        <v>73.79313451282179</v>
+        <v>8.723883188194778</v>
       </c>
       <c r="R19">
-        <v>664.1382106153961</v>
+        <v>78.514948693753</v>
       </c>
       <c r="S19">
-        <v>0.07963324996990997</v>
+        <v>0.005119707764164288</v>
       </c>
       <c r="T19">
-        <v>0.07963324996990999</v>
+        <v>0.005119707764164285</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H20">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I20">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J20">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N20">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O20">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P20">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q20">
-        <v>6.886675049348002</v>
+        <v>0.08192322305566666</v>
       </c>
       <c r="R20">
-        <v>61.98007544413201</v>
+        <v>0.7373090075009999</v>
       </c>
       <c r="S20">
-        <v>0.007431698345473911</v>
+        <v>4.807755354989456E-05</v>
       </c>
       <c r="T20">
-        <v>0.007431698345473912</v>
+        <v>4.807755354989455E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H21">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I21">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J21">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N21">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O21">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P21">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q21">
-        <v>26.23423438662289</v>
+        <v>8.066428717114777</v>
       </c>
       <c r="R21">
-        <v>236.108109479606</v>
+        <v>72.597858454033</v>
       </c>
       <c r="S21">
-        <v>0.02831045677177675</v>
+        <v>0.004733873304032168</v>
       </c>
       <c r="T21">
-        <v>0.02831045677177675</v>
+        <v>0.004733873304032166</v>
       </c>
     </row>
   </sheetData>
